--- a/Clouds/Lab1/AWS team 9.xlsx
+++ b/Clouds/Lab1/AWS team 9.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="111">
   <si>
     <t>IT Tower</t>
   </si>
@@ -214,9 +214,6 @@
     <t>SSL-Cert-Custom</t>
   </si>
   <si>
-    <t>Networking</t>
-  </si>
-  <si>
     <t>Amazon Route 53</t>
   </si>
   <si>
@@ -313,7 +310,7 @@
     <t>Kendra Enterprise Edition</t>
   </si>
   <si>
-    <t>Search</t>
+    <t>Base Index</t>
   </si>
   <si>
     <t>AmazonKendra</t>
@@ -1281,13 +1278,13 @@
     </row>
     <row r="25">
       <c r="A25" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>15</v>
@@ -1296,7 +1293,7 @@
         <v>16</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
@@ -1306,390 +1303,390 @@
     </row>
     <row r="26">
       <c r="A26" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="6" t="s">
+      <c r="D26" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" s="6" t="s">
+      <c r="G26" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>72</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
     </row>
     <row r="27">
       <c r="A27" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="6" t="s">
+      <c r="D27" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F27" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>69</v>
-      </c>
       <c r="G27" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
     </row>
     <row r="28">
       <c r="A28" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="6" t="s">
+      <c r="D28" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E28" s="6" t="s">
+      <c r="G28" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>76</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
     </row>
     <row r="29">
       <c r="A29" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C29" s="6" t="s">
+      <c r="D29" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D29" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E29" s="6" t="s">
+      <c r="G29" s="6" t="s">
         <v>77</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>78</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
     </row>
     <row r="30">
       <c r="A30" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" s="6" t="s">
+      <c r="D30" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F30" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E30" s="6" t="s">
+      <c r="G30" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
     </row>
     <row r="31">
       <c r="A31" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" s="6" t="s">
+      <c r="D31" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F31" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E31" s="6" t="s">
+      <c r="G31" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>83</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
     </row>
     <row r="32">
       <c r="A32" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" s="6" t="s">
+      <c r="D32" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F32" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D32" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>69</v>
-      </c>
       <c r="G32" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
     </row>
     <row r="33">
       <c r="A33" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" s="6" t="s">
+      <c r="D33" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F33" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E33" s="6" t="s">
+      <c r="G33" s="6" t="s">
         <v>86</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>87</v>
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
     </row>
     <row r="34">
       <c r="A34" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" s="6" t="s">
+      <c r="D34" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F34" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D34" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>69</v>
-      </c>
       <c r="G34" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H34" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>89</v>
       </c>
       <c r="I34" s="7"/>
     </row>
     <row r="35">
       <c r="A35" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C35" s="6" t="s">
+      <c r="D35" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F35" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D35" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>69</v>
-      </c>
       <c r="G35" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
     </row>
     <row r="36">
       <c r="A36" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C36" s="6" t="s">
+      <c r="D36" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F36" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D36" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E36" s="6" t="s">
+      <c r="G36" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>92</v>
       </c>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
     </row>
     <row r="37">
       <c r="A37" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C37" s="6" t="s">
+      <c r="D37" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F37" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D37" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E37" s="6" t="s">
+      <c r="G37" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>95</v>
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
     </row>
     <row r="38">
       <c r="A38" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B38" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="C38" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="D38" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="E38" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="F38" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="F38" s="8" t="s">
+      <c r="G38" s="8" t="s">
         <v>101</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>102</v>
       </c>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
     </row>
     <row r="39">
       <c r="A39" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="C39" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C39" s="8" t="s">
-        <v>98</v>
-      </c>
       <c r="D39" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E39" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="F39" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G39" s="8" t="s">
         <v>104</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>105</v>
       </c>
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
     </row>
     <row r="40">
       <c r="A40" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="C40" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C40" s="8" t="s">
-        <v>98</v>
-      </c>
       <c r="D40" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E40" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="F40" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G40" s="8" t="s">
         <v>107</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>108</v>
       </c>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
     </row>
     <row r="41">
       <c r="A41" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B41" s="10" t="s">
-        <v>97</v>
-      </c>
       <c r="C41" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>15</v>
@@ -1698,7 +1695,7 @@
         <v>16</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
@@ -1708,13 +1705,13 @@
     </row>
     <row r="42">
       <c r="A42" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B42" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B42" s="10" t="s">
-        <v>97</v>
-      </c>
       <c r="C42" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>50</v>
@@ -1723,10 +1720,10 @@
         <v>50</v>
       </c>
       <c r="F42" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G42" s="10" t="s">
         <v>110</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>111</v>
       </c>
       <c r="H42" s="11"/>
       <c r="I42" s="11"/>
